--- a/architecture/io.xlsx
+++ b/architecture/io.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond Yang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stanford\Academics\Course\EE372 Design Projects in VLSI Systems II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE4952C-ED78-410D-8A0F-7AEE2931446F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073E31A-0692-4528-A6EF-416C34071308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{BFF76BDA-4C73-42C0-8899-104376B463BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{BFF76BDA-4C73-42C0-8899-104376B463BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="io_planning" sheetId="2" r:id="rId1"/>
+    <sheet name="io_planning_v1" sheetId="2" r:id="rId1"/>
+    <sheet name="io_planning_v2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="60">
   <si>
     <t>Analog Pads</t>
   </si>
@@ -149,12 +150,6 @@
     <t>d_clk_grp_ctrl [1:0]</t>
   </si>
   <si>
-    <t>[ota1_bias_a, ota1_bias_b, ota1_bias_c, dac_p]</t>
-  </si>
-  <si>
-    <t>[ota1_bias_d, ota1_cm, ota1_cmc, dac_n]</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -171,6 +166,54 @@
   </si>
   <si>
     <t>serial_data_out</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>[ota1_bias_a, ota1_bias_b, ota1_cm, dac_p]</t>
+  </si>
+  <si>
+    <t>[ota1_bias_c, ota1_bias_d, ota1_cmc, dac_n]</t>
+  </si>
+  <si>
+    <t>[op1, op2]</t>
+  </si>
+  <si>
+    <t>[on1, on2]</t>
+  </si>
+  <si>
+    <t>[ota1_bias_a, ota1_bias_b, ota1_cm, UNUSED]</t>
+  </si>
+  <si>
+    <t>[ota1_bias_c, ota1_bias_d, ota1_cm, UNUSED]</t>
+  </si>
+  <si>
+    <t>a_mod_grp_ctrl [1:0]</t>
+  </si>
+  <si>
+    <t>a_mod_grp_ctrl [0]</t>
+  </si>
+  <si>
+    <t>a_mod_grp_ctrl [1]</t>
+  </si>
+  <si>
+    <t>d_clk_grp_1_ctrl [1:0]</t>
+  </si>
+  <si>
+    <t>d_clk_grp_2_ctrl [1:0]</t>
+  </si>
+  <si>
+    <t>d_clk_grp_1_ctrl [0]</t>
+  </si>
+  <si>
+    <t>d_clk_grp_1_ctrl [1]</t>
+  </si>
+  <si>
+    <t>d_clk_grp_2_ctrl [0]</t>
+  </si>
+  <si>
+    <t>d_clk_grp_2_ctrl [1]</t>
   </si>
 </sst>
 </file>
@@ -251,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -263,6 +306,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,14 +324,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,17 +641,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88465350-5FDC-4C81-84A1-2061AE7F221B}">
-  <dimension ref="B3:G42"/>
+  <dimension ref="B3:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.88671875" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -613,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
@@ -627,12 +673,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -641,24 +687,24 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -667,48 +713,48 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -717,19 +763,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -740,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
@@ -751,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -762,247 +808,247 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -1010,10 +1056,10 @@
         <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -1021,10 +1067,10 @@
         <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
@@ -1032,10 +1078,10 @@
         <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1043,10 +1089,10 @@
         <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
@@ -1054,10 +1100,21 @@
         <v>29</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1122,472 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E33:E36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C014EA-DEE4-4364-BDAC-4805943336D4}">
+  <dimension ref="B3:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>29</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/architecture/io.xlsx
+++ b/architecture/io.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stanford\Academics\Course\EE372 Design Projects in VLSI Systems II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond Yang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073E31A-0692-4528-A6EF-416C34071308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A1450-32D7-4357-B61D-D956500EFF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{BFF76BDA-4C73-42C0-8899-104376B463BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{BFF76BDA-4C73-42C0-8899-104376B463BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="io_planning_v1" sheetId="2" r:id="rId1"/>
-    <sheet name="io_planning_v2" sheetId="4" r:id="rId2"/>
+    <sheet name="io_planning" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,23 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Analog Pads</t>
   </si>
   <si>
-    <t>[ip1, ip1_c, op1, op1_c]</t>
-  </si>
-  <si>
-    <t>[in1, in1_c, on1, on1_c]</t>
-  </si>
-  <si>
-    <t>[ip2, op2]</t>
-  </si>
-  <si>
-    <t>[in2, on2]</t>
-  </si>
-  <si>
     <t>[ip]</t>
   </si>
   <si>
@@ -120,36 +108,6 @@
     <t>[p2d, Bd, p2d_b, Bd_b]</t>
   </si>
   <si>
-    <t>a_mod_grp_2_ctrl</t>
-  </si>
-  <si>
-    <t>a_mod_grp_1_ctrl [0]</t>
-  </si>
-  <si>
-    <t>a_mod_grp_1_ctrl [1]</t>
-  </si>
-  <si>
-    <t>a_mod_grp_3_ctrl [0]</t>
-  </si>
-  <si>
-    <t>a_mod_grp_3_ctrl [1]</t>
-  </si>
-  <si>
-    <t>d_clk_grp_ctrl [0]</t>
-  </si>
-  <si>
-    <t>d_clk_grp_ctrl [1]</t>
-  </si>
-  <si>
-    <t>a_mod_grp_1_ctrl [1:0]</t>
-  </si>
-  <si>
-    <t>a_mod_grp_3_ctrl [1:0]</t>
-  </si>
-  <si>
-    <t>d_clk_grp_ctrl [1:0]</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -171,12 +129,6 @@
     <t>debug</t>
   </si>
   <si>
-    <t>[ota1_bias_a, ota1_bias_b, ota1_cm, dac_p]</t>
-  </si>
-  <si>
-    <t>[ota1_bias_c, ota1_bias_d, ota1_cmc, dac_n]</t>
-  </si>
-  <si>
     <t>[op1, op2]</t>
   </si>
   <si>
@@ -186,9 +138,6 @@
     <t>[ota1_bias_a, ota1_bias_b, ota1_cm, UNUSED]</t>
   </si>
   <si>
-    <t>[ota1_bias_c, ota1_bias_d, ota1_cm, UNUSED]</t>
-  </si>
-  <si>
     <t>a_mod_grp_ctrl [1:0]</t>
   </si>
   <si>
@@ -214,6 +163,15 @@
   </si>
   <si>
     <t>d_clk_grp_2_ctrl [1]</t>
+  </si>
+  <si>
+    <t>[ota1_bias_c, ota1_bias_d, ota1_cmc, UNUSED]</t>
+  </si>
+  <si>
+    <t>[i_bias_1]</t>
+  </si>
+  <si>
+    <t>[i_bias_2]</t>
   </si>
 </sst>
 </file>
@@ -245,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,17 +232,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -294,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -309,10 +256,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -320,12 +270,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88465350-5FDC-4C81-84A1-2061AE7F221B}">
-  <dimension ref="B3:G43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C014EA-DEE4-4364-BDAC-4805943336D4}">
+  <dimension ref="B3:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,11 +603,11 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -673,12 +617,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -687,524 +631,34 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
         <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>18</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>20</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>21</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>22</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
-        <v>23</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
-        <v>24</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <v>25</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
-        <v>26</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>27</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
-        <v>29</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="1">
-        <v>30</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E33:E36"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C014EA-DEE4-4364-BDAC-4805943336D4}">
-  <dimension ref="B3:G42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1213,13 +667,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1227,367 +681,391 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="10"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
         <v>29</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>53</v>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
